--- a/02_데이터베이스(게임 테이블)/01. 데이터베이스_테이블 _ 영웅.xlsx
+++ b/02_데이터베이스(게임 테이블)/01. 데이터베이스_테이블 _ 영웅.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="문자 데이터  빨=string" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="값 데이터  초=float 노=int 파=bool 보=범" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="문자 데이터" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="값 데이터" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -64,13 +64,13 @@
     </comment>
     <comment authorId="0" ref="C1">
       <text>
-        <t xml:space="preserve">현재 체력
+        <t xml:space="preserve">종합 데미지량 (1타격시)
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="D1">
       <text>
-        <t xml:space="preserve">종합 데미지량 (1타격시)
+        <t xml:space="preserve">현재 체력
 ======</t>
       </text>
     </comment>
@@ -146,24 +146,12 @@
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Q1">
-      <text>
-        <t xml:space="preserve">스킬 사용 가능 여부 / bool / true = 사용 가능 ( 자동 사용 )
-======</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="R1">
-      <text>
-        <t xml:space="preserve">궁극기 사용 가능 여부 / bool / true = 사용 가능 ( 직접 사용 )
-======</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Index</t>
   </si>
@@ -174,19 +162,37 @@
     <t>Name_Eng</t>
   </si>
   <si>
-    <t>"예시"</t>
+    <t>"다우어프 레벤"</t>
   </si>
   <si>
-    <t>"EX"</t>
+    <t>"Dauerhaft Leben"</t>
+  </si>
+  <si>
+    <t>"퀸트 클랑"</t>
+  </si>
+  <si>
+    <t>"Künstler Klang"</t>
+  </si>
+  <si>
+    <t>"게보르트눈"</t>
+  </si>
+  <si>
+    <t>"Gebot Ordnung"</t>
+  </si>
+  <si>
+    <t>"올도슈넬리"</t>
+  </si>
+  <si>
+    <t>"Ordonnanz Schnell"</t>
   </si>
   <si>
     <t>Hp_Total</t>
   </si>
   <si>
-    <t>Hp_Cur</t>
+    <t>Total_Damage</t>
   </si>
   <si>
-    <t>Total_Damage</t>
+    <t>Char_hp</t>
   </si>
   <si>
     <t>Chr_Power</t>
@@ -224,41 +230,14 @@
   <si>
     <t>Def_Know_Range</t>
   </si>
-  <si>
-    <t>Skill_Able</t>
-  </si>
-  <si>
-    <t>Ultimate_Able</t>
-  </si>
-  <si>
-    <t>200.0f</t>
-  </si>
-  <si>
-    <t>10.0f</t>
-  </si>
-  <si>
-    <t>5.0f</t>
-  </si>
-  <si>
-    <t>1.5f</t>
-  </si>
-  <si>
-    <t>2.0f</t>
-  </si>
-  <si>
-    <t>4.0f</t>
-  </si>
-  <si>
-    <t>7.0f</t>
-  </si>
-  <si>
-    <t>100.0f</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="10.0"/>
@@ -298,7 +277,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,12 +304,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -342,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -382,14 +355,23 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +597,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.78"/>
-    <col customWidth="1" min="2" max="2" width="7.44"/>
-    <col customWidth="1" min="3" max="3" width="8.56"/>
+    <col customWidth="1" min="2" max="2" width="11.67"/>
+    <col customWidth="1" min="3" max="3" width="16.22"/>
     <col customWidth="1" min="4" max="4" width="7.11"/>
     <col customWidth="1" min="5" max="5" width="6.22"/>
     <col customWidth="1" min="6" max="6" width="10.89"/>
@@ -693,14 +675,14 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10">
-        <f t="shared" ref="A3:A27" si="1">A2 + 1</f>
+        <f t="shared" ref="A3:A5" si="1">A2 + 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -726,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -755,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
@@ -779,16 +761,9 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
@@ -808,16 +783,9 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
@@ -837,16 +805,9 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
@@ -866,16 +827,9 @@
       <c r="T8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
@@ -895,16 +849,9 @@
       <c r="T9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
@@ -924,16 +871,9 @@
       <c r="T10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="6"/>
@@ -953,16 +893,9 @@
       <c r="T11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
@@ -982,16 +915,9 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6"/>
@@ -1011,16 +937,9 @@
       <c r="T13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
@@ -1040,16 +959,9 @@
       <c r="T14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="10">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -1069,16 +981,9 @@
       <c r="T15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -1098,16 +1003,9 @@
       <c r="T16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="10">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -1127,16 +1025,9 @@
       <c r="T17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -1156,16 +1047,9 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="10">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -1185,16 +1069,9 @@
       <c r="T19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="10">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
@@ -1214,16 +1091,9 @@
       <c r="T20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="10">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
@@ -1243,16 +1113,9 @@
       <c r="T21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
@@ -1272,16 +1135,9 @@
       <c r="T22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="10">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
@@ -1301,16 +1157,9 @@
       <c r="T23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
@@ -1330,16 +1179,9 @@
       <c r="T24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="10">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
@@ -1359,16 +1201,9 @@
       <c r="T25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A26" s="10"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
@@ -1388,16 +1223,9 @@
       <c r="T26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
@@ -2410,21 +2238,19 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="4.78"/>
     <col customWidth="1" min="2" max="2" width="7.44"/>
-    <col customWidth="1" min="3" max="3" width="8.56"/>
-    <col customWidth="1" min="4" max="4" width="7.11"/>
-    <col customWidth="1" min="5" max="5" width="6.22"/>
-    <col customWidth="1" min="6" max="6" width="10.89"/>
-    <col customWidth="1" min="7" max="7" width="8.67"/>
-    <col customWidth="1" min="8" max="8" width="11.11"/>
+    <col customWidth="1" min="3" max="3" width="10.89"/>
+    <col customWidth="1" min="4" max="4" width="8.56"/>
+    <col customWidth="1" min="5" max="5" width="8.67"/>
+    <col customWidth="1" min="6" max="6" width="11.11"/>
+    <col customWidth="1" min="7" max="7" width="11.22"/>
+    <col customWidth="1" min="8" max="8" width="6.22"/>
     <col customWidth="1" min="9" max="9" width="11.22"/>
-    <col customWidth="1" min="10" max="10" width="6.22"/>
-    <col customWidth="1" min="11" max="11" width="6.44"/>
-    <col customWidth="1" min="12" max="12" width="12.11"/>
-    <col customWidth="1" min="13" max="13" width="9.56"/>
-    <col customWidth="1" min="14" max="14" width="11.44"/>
-    <col customWidth="1" min="15" max="15" width="10.78"/>
-    <col customWidth="1" min="16" max="16" width="7.11"/>
-    <col customWidth="1" min="17" max="18" width="13.44"/>
+    <col customWidth="1" min="10" max="10" width="12.11"/>
+    <col customWidth="1" min="11" max="11" width="9.56"/>
+    <col customWidth="1" min="12" max="12" width="11.44"/>
+    <col customWidth="1" min="13" max="13" width="10.78"/>
+    <col customWidth="1" min="14" max="14" width="7.11"/>
+    <col customWidth="1" min="15" max="18" width="13.44"/>
     <col customWidth="1" min="19" max="19" width="8.0"/>
     <col customWidth="1" min="20" max="20" width="10.78"/>
   </cols>
@@ -2434,87 +2260,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <v>1.0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>29</v>
+      <c r="B2" s="13">
+        <v>140.0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>18.0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.0</v>
       </c>
       <c r="K2" s="9">
         <v>1.0</v>
@@ -2525,179 +2345,161 @@
       <c r="M2" s="6">
         <v>45.0</v>
       </c>
-      <c r="N2" s="9">
-        <v>1.0</v>
+      <c r="N2" s="6">
+        <v>0.0</v>
       </c>
       <c r="O2" s="6">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="P2" s="6">
         <v>5.0</v>
       </c>
-      <c r="Q2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15">
-        <f t="shared" ref="A3:A27" si="1">A2 + 1</f>
+      <c r="A3" s="17">
+        <f t="shared" ref="A3:A5" si="1">A2 + 1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1.0</v>
+      <c r="B3" s="13">
+        <v>80.0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>22.0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1.1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2.0</v>
       </c>
       <c r="L3" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="M3" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1.0</v>
+        <v>65.0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.0</v>
       </c>
       <c r="O3" s="6">
         <v>10.0</v>
       </c>
       <c r="P3" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="b">
-        <v>0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>29</v>
+      <c r="B4" s="13">
+        <v>150.0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.0</v>
       </c>
       <c r="K4" s="9">
         <v>1.0</v>
       </c>
       <c r="L4" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="6">
         <v>5.0</v>
       </c>
-      <c r="M4" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>10.0</v>
-      </c>
       <c r="P4" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6" t="b">
-        <v>0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="B5" s="13">
+        <v>60.0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="13">
         <v>1.0</v>
       </c>
+      <c r="J5" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2.0</v>
+      </c>
       <c r="L5" s="6">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="M5" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>1.0</v>
+        <v>70.0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.0</v>
       </c>
       <c r="O5" s="6">
         <v>10.0</v>
@@ -2705,1266 +2507,446 @@
       <c r="P5" s="6">
         <v>5.0</v>
       </c>
-      <c r="Q5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A6" s="17"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A7" s="17"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A9" s="17"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A12" s="17"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A13" s="17"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="15">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A15" s="17"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A16" s="17"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A17" s="17"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="15">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A18" s="17"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="15">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A19" s="17"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="15">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A20" s="17"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A21" s="17"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="15">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A22" s="17"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="15">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A23" s="17"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="15">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A24" s="17"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="15">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A25" s="17"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="15">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A26" s="17"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="15">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="Q27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="A27" s="17"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>

--- a/02_데이터베이스(게임 테이블)/01. 데이터베이스_테이블 _ 영웅.xlsx
+++ b/02_데이터베이스(게임 테이블)/01. 데이터베이스_테이블 _ 영웅.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7micfd3um8BNSW0WHmA0jkP/PtK4dw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mitHHZwCEV9vmVw/wP6WMYBhm8i7Q=="/>
     </ext>
   </extLst>
 </workbook>
@@ -64,83 +64,65 @@
     </comment>
     <comment authorId="0" ref="C1">
       <text>
-        <t xml:space="preserve">종합 데미지량 (1타격시)
+        <t xml:space="preserve">캐릭터 공격력
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="D1">
       <text>
-        <t xml:space="preserve">현재 체력
+        <t xml:space="preserve">캐릭터 공격속도
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="E1">
       <text>
-        <t xml:space="preserve">캐릭터 공격력
+        <t xml:space="preserve">캐릭터 공격범위
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="F1">
       <text>
-        <t xml:space="preserve">캐릭터 공격속도
+        <t xml:space="preserve">캐릭터 방어력
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="G1">
       <text>
-        <t xml:space="preserve">캐릭터 공격범위
+        <t xml:space="preserve">캐릭터 이동속도
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="H1">
       <text>
-        <t xml:space="preserve">캐릭터 방어력
+        <t xml:space="preserve">0 = 탱커 / 1 = 근접딜러 / 2 = 원거리딜러
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="I1">
       <text>
-        <t xml:space="preserve">캐릭터 이동속도
+        <t xml:space="preserve">공격 우선도 / 0 = 적에게서 거의 우선되지 않음 ~ 10 = 적에게서 거의 우선됨
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="J1">
       <text>
-        <t xml:space="preserve">캐릭터 현재 궁 게이지 량 100/100 기준
+        <t xml:space="preserve">배치 우선도 / 0 =  탱커 30 = 근접 딜러 60 = 원거리 딜러 0~80 기준으로 작성 / 0~29 탱커 30~59 근접 딜러 60~ 원거리 딜러
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="K1">
       <text>
-        <t xml:space="preserve">0 = 탱커 / 1 = 근접딜러 / 2 = 원거리딜러
+        <t xml:space="preserve">해당 영웅 주속성 / 0 = 무속성 / 1 = 불 / 2 = 물 / 3 = 풀
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="L1">
       <text>
-        <t xml:space="preserve">공격 우선도 / 0 = 적에게서 거의 우선되지 않음 ~ 10 = 적에게서 거의 우선됨
+        <t xml:space="preserve">공격범위 인지 크기
 ======</t>
       </text>
     </comment>
     <comment authorId="0" ref="M1">
-      <text>
-        <t xml:space="preserve">배치 우선도 / 0 =  탱커 30 = 근접 딜러 60 = 원거리 딜러 0~80 기준으로 작성 / 0~29 탱커 30~59 근접 딜러 60~ 원거리 딜러
-======</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N1">
-      <text>
-        <t xml:space="preserve">해당 영웅 주속성 / 0 = 무속성 / 1 = 불 / 2 = 물 / 3 = 풀
-======</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="O1">
-      <text>
-        <t xml:space="preserve">공격범위 인지 크기
-======</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="P1">
       <text>
         <t xml:space="preserve">방어 범위 인지 크기
 ======</t>
@@ -151,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Index</t>
   </si>
@@ -189,12 +171,6 @@
     <t>Hp_Total</t>
   </si>
   <si>
-    <t>Total_Damage</t>
-  </si>
-  <si>
-    <t>Char_hp</t>
-  </si>
-  <si>
     <t>Chr_Power</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
   </si>
   <si>
     <t>Chr_MS</t>
-  </si>
-  <si>
-    <t>Ultimate_Gauge</t>
   </si>
   <si>
     <t>Attack_Type</t>
@@ -238,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -270,11 +243,6 @@
     <font>
       <color theme="1"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -315,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -352,20 +320,11 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -2238,21 +2197,18 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="4.78"/>
     <col customWidth="1" min="2" max="2" width="7.44"/>
-    <col customWidth="1" min="3" max="3" width="10.89"/>
-    <col customWidth="1" min="4" max="4" width="8.56"/>
-    <col customWidth="1" min="5" max="5" width="8.67"/>
-    <col customWidth="1" min="6" max="6" width="11.11"/>
+    <col customWidth="1" min="3" max="3" width="8.67"/>
+    <col customWidth="1" min="4" max="4" width="11.11"/>
+    <col customWidth="1" min="5" max="5" width="11.22"/>
+    <col customWidth="1" min="6" max="6" width="6.22"/>
     <col customWidth="1" min="7" max="7" width="11.22"/>
-    <col customWidth="1" min="8" max="8" width="6.22"/>
-    <col customWidth="1" min="9" max="9" width="11.22"/>
-    <col customWidth="1" min="10" max="10" width="12.11"/>
-    <col customWidth="1" min="11" max="11" width="9.56"/>
-    <col customWidth="1" min="12" max="12" width="11.44"/>
-    <col customWidth="1" min="13" max="13" width="10.78"/>
-    <col customWidth="1" min="14" max="14" width="7.11"/>
-    <col customWidth="1" min="15" max="18" width="13.44"/>
-    <col customWidth="1" min="19" max="19" width="8.0"/>
-    <col customWidth="1" min="20" max="20" width="10.78"/>
+    <col customWidth="1" min="8" max="8" width="9.56"/>
+    <col customWidth="1" min="9" max="9" width="11.44"/>
+    <col customWidth="1" min="10" max="10" width="10.78"/>
+    <col customWidth="1" min="11" max="11" width="7.11"/>
+    <col customWidth="1" min="12" max="15" width="13.44"/>
+    <col customWidth="1" min="16" max="16" width="8.0"/>
+    <col customWidth="1" min="17" max="17" width="10.78"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2277,13 +2233,13 @@
       <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2294,659 +2250,548 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <v>1.0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>140.0</v>
       </c>
       <c r="C2" s="13">
-        <v>18.0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="E2" s="15">
         <v>0.9</v>
       </c>
-      <c r="F2" s="13">
+      <c r="D2" s="12">
         <v>0.7</v>
       </c>
-      <c r="G2" s="13">
+      <c r="E2" s="12">
         <v>1.0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="F2" s="12">
         <v>0.5</v>
       </c>
-      <c r="I2" s="13">
+      <c r="G2" s="12">
         <v>0.8</v>
       </c>
-      <c r="J2" s="16">
+      <c r="H2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="K2" s="6">
         <v>0.0</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1.0</v>
       </c>
       <c r="L2" s="6">
         <v>5.0</v>
       </c>
       <c r="M2" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O2" s="6">
         <v>5.0</v>
       </c>
-      <c r="P2" s="6">
-        <v>5.0</v>
-      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="14">
         <f t="shared" ref="A3:A5" si="1">A2 + 1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>80.0</v>
       </c>
       <c r="C3" s="13">
-        <v>22.0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="15">
         <v>1.1</v>
       </c>
-      <c r="F3" s="13">
+      <c r="D3" s="12">
         <v>0.9</v>
       </c>
-      <c r="G3" s="13">
+      <c r="E3" s="12">
         <v>4.0</v>
       </c>
-      <c r="H3" s="13">
+      <c r="F3" s="12">
         <v>0.4</v>
       </c>
-      <c r="I3" s="13">
+      <c r="G3" s="12">
         <v>1.2</v>
       </c>
-      <c r="J3" s="16">
+      <c r="H3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>65.0</v>
+      </c>
+      <c r="K3" s="6">
         <v>0.0</v>
       </c>
-      <c r="K3" s="6">
-        <v>2.0</v>
-      </c>
       <c r="L3" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="M3" s="6">
         <v>3.0</v>
       </c>
-      <c r="M3" s="6">
-        <v>65.0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>150.0</v>
       </c>
       <c r="C4" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D4" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="12">
         <v>1.5</v>
       </c>
-      <c r="E4" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="H4" s="9">
         <v>1.0</v>
       </c>
-      <c r="H4" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="I4" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="K4" s="6">
         <v>0.0</v>
       </c>
-      <c r="K4" s="9">
-        <v>1.0</v>
-      </c>
       <c r="L4" s="6">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="M4" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="P4" s="6">
         <v>8.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>60.0</v>
       </c>
       <c r="C5" s="13">
-        <v>24.0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="15">
         <v>1.2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="D5" s="12">
         <v>1.2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="E5" s="12">
         <v>5.0</v>
       </c>
-      <c r="H5" s="13">
+      <c r="F5" s="12">
         <v>0.4</v>
       </c>
-      <c r="I5" s="13">
+      <c r="G5" s="12">
         <v>1.0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="H5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="K5" s="6">
         <v>0.0</v>
       </c>
-      <c r="K5" s="6">
-        <v>2.0</v>
-      </c>
       <c r="L5" s="6">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="M5" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="P5" s="6">
         <v>5.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="9"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="9"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="9"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="9"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="9"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="9"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="9"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="9"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="9"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="9"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="9"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="9"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="9"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="9"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="9"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="9"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="9"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="9"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="9"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="9"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="9"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="9"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="9"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="9"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="9"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="9"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="9"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="9"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="9"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="9"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="9"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="18"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="9"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="9"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="9"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="9"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="9"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="9"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
